--- a/medicine/Pharmacie/Classe_ATC_V04/Classe_ATC_V04.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_V04/Classe_ATC_V04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC V04, dénommée « Médicaments pour diagnostic », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV04[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC V04, dénommée « Médicaments pour diagnostic », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QV04. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique V de la classification, intitulé « Divers ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>V04B Tests urinaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Classe vide.</t>
         </is>
@@ -543,57 +557,503 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>V04CA Tests pour le diabète
-V04CA01 Tolbutamide
-V04CA02 Glucose
-V04CB Tests pour l'absorption des graisses
-V04CB01 Concentrés de vitamine A
-V04CC Tests pour la fonction biliaire
-V04CC01 Sorbitol
+          <t>V04CA Tests pour le diabète</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>V04CA01 Tolbutamide
+V04CA02 Glucose</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>V04C Autres médicaments pour diagnostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>V04CB Tests pour l'absorption des graisses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>V04CB01 Concentrés de vitamine A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>V04C Autres médicaments pour diagnostic</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>V04CC Tests pour la fonction biliaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>V04CC01 Sorbitol
 V04CC02 Sulfate de magnésium
 V04CC03 Sincalide (en)
-V04CC04 Cérulétide (en)
-V04CD Tests pour la fonction hypophysaire
-V04CD01 Métyrapone
+V04CC04 Cérulétide (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>V04C Autres médicaments pour diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>V04CD Tests pour la fonction hypophysaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>V04CD01 Métyrapone
 V04CD03 Sermoréline (en)
 V04CD04 Corticoréline (en)
 V04CD05 Somatoréline (en)
-V04CD06 Macimoréline (en)
-V04CE Tests pour la fonction hépatique
-V04CE01 Galactose
+V04CD06 Macimoréline (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>V04C Autres médicaments pour diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>V04CE Tests pour la fonction hépatique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>V04CE01 Galactose
 V04CE02 Sulfobromophtaléïne (en)
-V04CE03 Méthacétine (13C)
-V04CF Diagnostic de la tuberculose
-V04CF01 Tuberculine
-V04CG Tests pour la sécrétion gastrique
-V04CG01 Résines échangeuses de cations
+V04CE03 Méthacétine (13C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>V04C Autres médicaments pour diagnostic</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>V04CF Diagnostic de la tuberculose</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>V04CF01 Tuberculine</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>V04C Autres médicaments pour diagnostic</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>V04CG Tests pour la sécrétion gastrique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>V04CG01 Résines échangeuses de cations
 V04CG02 Bétazole (en)
 V04CG03 Phosphate d'histamine
 V04CG04 Pentagastrine (en)
 V04CG05 Chlorure de méthylthioninium
-V04CG30 Caféine et benzoate de sodium
-V04CH Tests pour la fonction rénale
-V04CH01 Inuline et autres polyfructosans (en)
+V04CG30 Caféine et benzoate de sodium</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>V04C Autres médicaments pour diagnostic</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>V04CH Tests pour la fonction rénale</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>V04CH01 Inuline et autres polyfructosans (en)
 V04CH02 Carmin indigo
 V04CH03 Phénolsulfonéphtaléïne
 V04CH04 Alsactide (en)
-V04CH30 Acide aminohippurique
-V04CJ Tests pour la fonction thyroïdienne
-V04CJ01 Thyrotropine
-V04CJ02 Protiréline
-V04CK Tests pour la fonction pancréatique
-V04CK01 Secrétine
+V04CH30 Acide aminohippurique</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>V04C Autres médicaments pour diagnostic</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>V04CJ Tests pour la fonction thyroïdienne</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>V04CJ01 Thyrotropine
+V04CJ02 Protiréline</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>V04C Autres médicaments pour diagnostic</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>V04CK Tests pour la fonction pancréatique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>V04CK01 Secrétine
 V04CK02 Pancréozymine (cholécystokinine)
-V04CK03 Bentiromide (en)
-V04CL Tests pour les affections allergiques
-V04CL01 Méthacholine
-V04CM Tests pour les troubles de la fertilité
-V04CM01 Gonadoréline
-QV04CQ Tests pour mastite
-QV04CV Tests pour fonction respiratoire
-QV04CV01 Lobéline
-V04CX Autres médicaments pour diagnostic
-Vide.</t>
+V04CK03 Bentiromide (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>V04C Autres médicaments pour diagnostic</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>V04CL Tests pour les affections allergiques</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>V04CL01 Méthacholine</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>V04C Autres médicaments pour diagnostic</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>V04CM Tests pour les troubles de la fertilité</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>V04CM01 Gonadoréline</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>V04C Autres médicaments pour diagnostic</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>QV04CV Tests pour fonction respiratoire</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>QV04CV01 Lobéline</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_V04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>V04C Autres médicaments pour diagnostic</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>V04CX Autres médicaments pour diagnostic</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Vide.</t>
         </is>
       </c>
     </row>
